--- a/data/trans_dic/P29A-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P29A-Edad-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.5869089583512911</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.4076649376492578</v>
+        <v>0.4076649376492577</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.3640412190237306</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.4980673057963121</v>
+        <v>0.492751774613142</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.536182783165381</v>
+        <v>0.5364544116849558</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.5320103751883323</v>
+        <v>0.5355208269024906</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.335259433599839</v>
+        <v>0.3348906073451568</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.3223995894653162</v>
+        <v>0.3196054235570003</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.345017699077189</v>
+        <v>0.3439651804955478</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.3690784615820347</v>
+        <v>0.3613671706657328</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2512201601488915</v>
+        <v>0.2493442671068625</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.4226373849318013</v>
+        <v>0.423901200344545</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.4569155518648417</v>
+        <v>0.4531509508719725</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.4673926675803926</v>
+        <v>0.4700140704147422</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.3127331993691984</v>
+        <v>0.3069869559833855</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.5878891835191238</v>
+        <v>0.5861186802953662</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.6351329053156639</v>
+        <v>0.6357262846133362</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.6373670600432243</v>
+        <v>0.6371843088427999</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.4880735305458518</v>
+        <v>0.4918798367902334</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.407151161547344</v>
+        <v>0.4084925183588118</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.4369995145515849</v>
+        <v>0.4344996334766819</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.4657316262298803</v>
+        <v>0.4607375828868196</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3750321915141265</v>
+        <v>0.3795905167388518</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.489942157688957</v>
+        <v>0.4882387514648397</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.5234769680088467</v>
+        <v>0.5209381805491279</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.5359128790903137</v>
+        <v>0.5358167928261353</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.4136685911085318</v>
+        <v>0.4113190502416452</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.6189618951274208</v>
+        <v>0.6173910606507412</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.5961865004956213</v>
+        <v>0.5959112970951311</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.5546767538638728</v>
+        <v>0.5515876873947247</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.4591906596123289</v>
+        <v>0.4637601712746853</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2905951482980448</v>
+        <v>0.2912738277018189</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2694531761692272</v>
+        <v>0.2703656784125649</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.3550549116176766</v>
+        <v>0.3513125994690823</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.264851453408953</v>
+        <v>0.2670643874342975</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.4772729281291072</v>
+        <v>0.4767205762277256</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.4459841886354303</v>
+        <v>0.4467375708731741</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.4656922337913416</v>
+        <v>0.4671073884927729</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.3761970786366842</v>
+        <v>0.3760386957875309</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.6893655876532599</v>
+        <v>0.6897934101190649</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.6722842039734903</v>
+        <v>0.6732671583157563</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.6332560851073248</v>
+        <v>0.6366615810180876</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.5777026120183791</v>
+        <v>0.5816612011049809</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3686661843646843</v>
+        <v>0.3670590487812336</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3463785307306502</v>
+        <v>0.3462660322069689</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.4357580234527086</v>
+        <v>0.4355554892020413</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3507400333889791</v>
+        <v>0.3542716691801888</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.531000596487583</v>
+        <v>0.5287495579412033</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.5056028649169847</v>
+        <v>0.5074350681334678</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.5274471768575064</v>
+        <v>0.5245953126581073</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.4538806175222868</v>
+        <v>0.4536386527966118</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.6304348592323965</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.5047675354591467</v>
+        <v>0.5047675354591465</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.3025166172242487</v>
@@ -957,7 +957,7 @@
         <v>0.3588594757993055</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.2738631253294848</v>
+        <v>0.2738631253294849</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.4451325365673358</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.5595345769644353</v>
+        <v>0.5563138577182035</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.5534452585305154</v>
+        <v>0.5579957224510449</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.5883073962088953</v>
+        <v>0.5918938526726228</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.4632729174236329</v>
+        <v>0.4612102453000072</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2661784881936426</v>
+        <v>0.2690967021816344</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2547774565559912</v>
+        <v>0.2561343474352502</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.3224037618942655</v>
+        <v>0.3208977008197775</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2478585540802821</v>
+        <v>0.2442697178301997</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.4179726531302125</v>
+        <v>0.4193648906333964</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.4129545036639684</v>
+        <v>0.4123825361344989</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.4686073760746401</v>
+        <v>0.4662933220767749</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.363488105555986</v>
+        <v>0.3599139172477986</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.6375498753186873</v>
+        <v>0.6370951239466037</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.6370064614883685</v>
+        <v>0.6336696588566403</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.6685450003336558</v>
+        <v>0.6663404145772782</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.551151311224081</v>
+        <v>0.5462970631427472</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3408599354144532</v>
+        <v>0.3387873848811074</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3255175636679932</v>
+        <v>0.3279506114955409</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3984543736298399</v>
+        <v>0.391657571490458</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3047078801731617</v>
+        <v>0.3030358242236662</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.4724100839657059</v>
+        <v>0.4727547509619515</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.4676233875573551</v>
+        <v>0.4687099375849784</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.5237066044682749</v>
+        <v>0.5202541626411239</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.4159977852108992</v>
+        <v>0.4159158561950631</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.5362588637893497</v>
+        <v>0.5397308106331015</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.565069661327961</v>
+        <v>0.5652752606565957</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.5475549806042228</v>
+        <v>0.5502282260866702</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.4729636791026476</v>
+        <v>0.4754448825196966</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2208090980626978</v>
+        <v>0.2185440196851209</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2717985337968754</v>
+        <v>0.2719128593260748</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.3419465512005809</v>
+        <v>0.3435223926126359</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2613911512601027</v>
+        <v>0.2628910674511467</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.3876844370855207</v>
+        <v>0.3922023615116336</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.4256462346484369</v>
+        <v>0.4238583115945208</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.4587493882586484</v>
+        <v>0.4537155965539371</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.3709119396961322</v>
+        <v>0.369550347721143</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.6267467884798293</v>
+        <v>0.6274927500757518</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.6500590569968986</v>
+        <v>0.6484331972984149</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.6272142230621055</v>
+        <v>0.6343049195478502</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.5483279663394705</v>
+        <v>0.5508379107007702</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2972239997569777</v>
+        <v>0.2970235655672676</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3525609770380086</v>
+        <v>0.3524693671542312</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.423298071054501</v>
+        <v>0.4244156552454703</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3158234848463671</v>
+        <v>0.3165782485752173</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.4518362826325138</v>
+        <v>0.4529063761968283</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.4861006954933177</v>
+        <v>0.4861298254311318</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.5164716618351683</v>
+        <v>0.5138708582865404</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.4180212883252133</v>
+        <v>0.4221585568707159</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.5801280247606528</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.4632731270665615</v>
+        <v>0.4632731270665614</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.1724399936281837</v>
@@ -1241,7 +1241,7 @@
         <v>0.409427942677937</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.3534654445405696</v>
+        <v>0.3534654445405697</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.3918188365693305</v>
+        <v>0.3932082884771287</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.4536612796396928</v>
+        <v>0.453576375909479</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.5328226704707957</v>
+        <v>0.5313414404242345</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.4234077377310771</v>
+        <v>0.4230567478935642</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1384447056225156</v>
+        <v>0.1372586533815524</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1771336746344783</v>
+        <v>0.1756732663783948</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2120530608949746</v>
+        <v>0.2094560991313759</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2157662765010808</v>
+        <v>0.2156148430042689</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2704072459495312</v>
+        <v>0.2734815042058454</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.3225485374811655</v>
+        <v>0.3212845248909518</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.3769253186196847</v>
+        <v>0.3755341866579784</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.3323729762364326</v>
+        <v>0.3324899254644415</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4919177033418949</v>
+        <v>0.4943661514378612</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.554143005433019</v>
+        <v>0.5552355806335713</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.6237033451307593</v>
+        <v>0.6270067436061353</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.5001290781374761</v>
+        <v>0.5017708638215196</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2132404042979942</v>
+        <v>0.2107697446943309</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2596498757565622</v>
+        <v>0.2609402139125586</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2926192787456715</v>
+        <v>0.2892772007532081</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2711845928686692</v>
+        <v>0.2689354685034004</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3345679108503381</v>
+        <v>0.3358020023152237</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.3907787447915065</v>
+        <v>0.3894533029025044</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.4406007309726791</v>
+        <v>0.4416099181725225</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.3796726739265263</v>
+        <v>0.3776390605585844</v>
       </c>
     </row>
     <row r="19">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.3686496558367423</v>
+        <v>0.3657811106355772</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.4113449664275531</v>
+        <v>0.4068894783349379</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.457040162895838</v>
+        <v>0.4557123538395478</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.469227665450467</v>
+        <v>0.4709880466454365</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.05641703736066488</v>
+        <v>0.05424886739991484</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.09071814280830362</v>
+        <v>0.08911937449173726</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.1334906533070155</v>
+        <v>0.1351091839881</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1589966858789505</v>
+        <v>0.1566558307083975</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.2064418044979966</v>
+        <v>0.2042768025763951</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.2464849363406763</v>
+        <v>0.2469532404582601</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.2901511951576822</v>
+        <v>0.2924596627646227</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.3160428814405545</v>
+        <v>0.3153587699934391</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.487659644846102</v>
+        <v>0.479948031831202</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.5293284560757701</v>
+        <v>0.5306045255444974</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.5665904512239468</v>
+        <v>0.5660640588487219</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.5534689307402296</v>
+        <v>0.556636054037924</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.1114076562085678</v>
+        <v>0.1106577229383361</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.1733272390334052</v>
+        <v>0.1652479284053626</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.2125532290152519</v>
+        <v>0.2165883430505035</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.2136221172449149</v>
+        <v>0.2111327007442652</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.2753415701132196</v>
+        <v>0.272063732809533</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.3238767967575684</v>
+        <v>0.3216131682979352</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.365921571217546</v>
+        <v>0.3638443299747476</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.3675168053787906</v>
+        <v>0.3681478321968676</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.2628625731302006</v>
+        <v>0.2685919418406124</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2620454544522141</v>
+        <v>0.259516599329092</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2979490295295573</v>
+        <v>0.2957796344399968</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.3070504329852885</v>
+        <v>0.3113233540738259</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.02437144944879758</v>
+        <v>0.02536699851173757</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.03108171627968775</v>
+        <v>0.03043741885054852</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.04951584990203731</v>
+        <v>0.05013160530762917</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.05257110073328804</v>
+        <v>0.05144442789546497</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.1301250721990099</v>
+        <v>0.1288210727950891</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.1283735274088879</v>
+        <v>0.1283233349789352</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.1554491998418357</v>
+        <v>0.155215244593488</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.1601276029897685</v>
+        <v>0.161517665880575</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.3972052067970037</v>
+        <v>0.3983853275601005</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.389000075881584</v>
+        <v>0.3902231583073321</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.4098285998060059</v>
+        <v>0.4102071813627047</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.3973202759134367</v>
+        <v>0.4009003898465673</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.07661026200111612</v>
+        <v>0.07625837806399764</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.07851324026446899</v>
+        <v>0.0784637212183075</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.1126137222414044</v>
+        <v>0.1156885320370538</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.08935031111091939</v>
+        <v>0.08936269918174732</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1883157241938949</v>
+        <v>0.1888099699743309</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.1909569401203384</v>
+        <v>0.1938647055386742</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.2149345069802768</v>
+        <v>0.2197800838744351</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.2051032927731768</v>
+        <v>0.2069183740021666</v>
       </c>
     </row>
     <row r="25">
@@ -1625,7 +1625,7 @@
         <v>0.5712487024919554</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.477308954453693</v>
+        <v>0.4773089544536929</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>0.2451746687844678</v>
@@ -1649,7 +1649,7 @@
         <v>0.4353840613056019</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.357223222035976</v>
+        <v>0.3572232220359761</v>
       </c>
     </row>
     <row r="26">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.5316664268579521</v>
+        <v>0.5312491237462529</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.5417908981698415</v>
+        <v>0.5410088729545064</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.5541174959153125</v>
+        <v>0.5521106653349013</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.4591346901349567</v>
+        <v>0.4596197230485993</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.2302887827110085</v>
+        <v>0.2309656674307581</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.241832000728409</v>
+        <v>0.2415850684756998</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.2910457329842283</v>
+        <v>0.2913726335161162</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.2300951768024301</v>
+        <v>0.2301385217580398</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.3838165261303975</v>
+        <v>0.3809318527772326</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.3927125951333919</v>
+        <v>0.3924526499848574</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.422662718392703</v>
+        <v>0.4224402528644248</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.3452016612806921</v>
+        <v>0.3461578198209461</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.5670807539612612</v>
+        <v>0.5668694940074696</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.5797526621171611</v>
+        <v>0.5783740792954402</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.5895592624350849</v>
+        <v>0.588895667768373</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.4946772610502415</v>
+        <v>0.495945228327597</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.2603749789322897</v>
+        <v>0.2606870401159073</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.2716665644391829</v>
+        <v>0.2714474600550966</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.3230707321412163</v>
+        <v>0.3238464347878498</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.2565394608114676</v>
+        <v>0.2557292656032618</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.4077141257472668</v>
+        <v>0.4060521204997483</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.416788199352423</v>
+        <v>0.4163550058203425</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.4467745291122596</v>
+        <v>0.4474043556272251</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.36847657135079</v>
+        <v>0.3688449789425959</v>
       </c>
     </row>
     <row r="28">
@@ -2011,40 +2011,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>243602</v>
+        <v>241002</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>236065</v>
+        <v>236184</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>215854</v>
+        <v>217278</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>136716</v>
+        <v>136566</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>149758</v>
+        <v>148460</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>147068</v>
+        <v>146619</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>144673</v>
+        <v>141650</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>91070</v>
+        <v>90390</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>403029</v>
+        <v>404234</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>395931</v>
+        <v>392669</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>372847</v>
+        <v>374938</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>240900</v>
+        <v>236474</v>
       </c>
     </row>
     <row r="7">
@@ -2055,40 +2055,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>287534</v>
+        <v>286668</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>279629</v>
+        <v>279891</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>258601</v>
+        <v>258527</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>199033</v>
+        <v>200585</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>189125</v>
+        <v>189748</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>186276</v>
+        <v>185211</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>182559</v>
+        <v>180602</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>135954</v>
+        <v>137606</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>467211</v>
+        <v>465586</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>453609</v>
+        <v>451409</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>427507</v>
+        <v>427430</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>318651</v>
+        <v>316841</v>
       </c>
     </row>
     <row r="8">
@@ -2191,40 +2191,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>447194</v>
+        <v>446059</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>389737</v>
+        <v>389557</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>320322</v>
+        <v>318538</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>218983</v>
+        <v>221163</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>181465</v>
+        <v>181889</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>160878</v>
+        <v>161423</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>197298</v>
+        <v>195218</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>132453</v>
+        <v>133560</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>642862</v>
+        <v>642118</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>557825</v>
+        <v>558767</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>527711</v>
+        <v>529315</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>367542</v>
+        <v>367388</v>
       </c>
     </row>
     <row r="11">
@@ -2235,40 +2235,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>498060</v>
+        <v>498370</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>439483</v>
+        <v>440126</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>365701</v>
+        <v>367668</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>275501</v>
+        <v>277388</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>230217</v>
+        <v>229213</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>206807</v>
+        <v>206740</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>242143</v>
+        <v>242030</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>175406</v>
+        <v>177172</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>715231</v>
+        <v>712199</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>632394</v>
+        <v>634686</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>597690</v>
+        <v>594459</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>443439</v>
+        <v>443202</v>
       </c>
     </row>
     <row r="12">
@@ -2371,40 +2371,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>353344</v>
+        <v>351311</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>361131</v>
+        <v>364101</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>381701</v>
+        <v>384028</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>287071</v>
+        <v>285793</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>181617</v>
+        <v>183608</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>175587</v>
+        <v>176522</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>209751</v>
+        <v>208771</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>153800</v>
+        <v>151573</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>549137</v>
+        <v>550966</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>554059</v>
+        <v>553291</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>608908</v>
+        <v>605901</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>450788</v>
+        <v>446356</v>
       </c>
     </row>
     <row r="15">
@@ -2415,40 +2415,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>402611</v>
+        <v>402324</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>415656</v>
+        <v>413479</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>433761</v>
+        <v>432330</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>341526</v>
+        <v>338518</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>232573</v>
+        <v>231159</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>224340</v>
+        <v>226017</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>259228</v>
+        <v>254807</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>189076</v>
+        <v>188038</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>620657</v>
+        <v>621110</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>627407</v>
+        <v>628865</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>680504</v>
+        <v>676018</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>515909</v>
+        <v>515808</v>
       </c>
     </row>
     <row r="16">
@@ -2551,40 +2551,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>274732</v>
+        <v>276511</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>328477</v>
+        <v>328596</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>343646</v>
+        <v>345324</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>329301</v>
+        <v>331028</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>112680</v>
+        <v>111524</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>163378</v>
+        <v>163447</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>216175</v>
+        <v>217171</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>192251</v>
+        <v>193354</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>396452</v>
+        <v>401072</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>503285</v>
+        <v>501171</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>577927</v>
+        <v>571586</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>531049</v>
+        <v>529100</v>
       </c>
     </row>
     <row r="19">
@@ -2595,40 +2595,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>321090</v>
+        <v>321472</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>377881</v>
+        <v>376936</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>393640</v>
+        <v>398090</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>381773</v>
+        <v>383521</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>151674</v>
+        <v>151572</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>211924</v>
+        <v>211869</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>267604</v>
+        <v>268310</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>232285</v>
+        <v>232840</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>462055</v>
+        <v>463149</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>574766</v>
+        <v>574801</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>650645</v>
+        <v>647369</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>598498</v>
+        <v>604421</v>
       </c>
     </row>
     <row r="20">
@@ -2731,40 +2731,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>149197</v>
+        <v>149726</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>185312</v>
+        <v>185278</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>242724</v>
+        <v>242049</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>257544</v>
+        <v>257331</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>55790</v>
+        <v>55312</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>77458</v>
+        <v>76820</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>103081</v>
+        <v>101819</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>130827</v>
+        <v>130735</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>211934</v>
+        <v>214344</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>272802</v>
+        <v>271733</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>354934</v>
+        <v>353624</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>403701</v>
+        <v>403843</v>
       </c>
     </row>
     <row r="23">
@@ -2775,40 +2775,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>187313</v>
+        <v>188245</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>226357</v>
+        <v>226804</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>284124</v>
+        <v>285629</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>304211</v>
+        <v>305210</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>85931</v>
+        <v>84936</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>113542</v>
+        <v>114106</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>142245</v>
+        <v>140621</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>164429</v>
+        <v>163065</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>262221</v>
+        <v>263188</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>330509</v>
+        <v>329388</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>414894</v>
+        <v>415844</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>461151</v>
+        <v>458681</v>
       </c>
     </row>
     <row r="24">
@@ -2911,40 +2911,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>106269</v>
+        <v>105442</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>121255</v>
+        <v>119942</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>147428</v>
+        <v>147000</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>190579</v>
+        <v>191294</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>19347</v>
+        <v>18604</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>31513</v>
+        <v>30958</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>50198</v>
+        <v>50806</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>69718</v>
+        <v>68692</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>130306</v>
+        <v>128940</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>158281</v>
+        <v>158582</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>202703</v>
+        <v>204315</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>266943</v>
+        <v>266365</v>
       </c>
     </row>
     <row r="27">
@@ -2955,40 +2955,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>140576</v>
+        <v>138353</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>156034</v>
+        <v>156410</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>182766</v>
+        <v>182596</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>224794</v>
+        <v>226080</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>38205</v>
+        <v>37948</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>60210</v>
+        <v>57403</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>79928</v>
+        <v>81445</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>93671</v>
+        <v>92579</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>173796</v>
+        <v>171727</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>207978</v>
+        <v>206525</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>255636</v>
+        <v>254185</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>310420</v>
+        <v>310953</v>
       </c>
     </row>
     <row r="28">
@@ -3091,40 +3091,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>54718</v>
+        <v>55911</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>63812</v>
+        <v>63196</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>74425</v>
+        <v>73883</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>95116</v>
+        <v>96440</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>8110</v>
+        <v>8442</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>12056</v>
+        <v>11806</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>19582</v>
+        <v>19826</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>24304</v>
+        <v>23783</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>70391</v>
+        <v>69685</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>81054</v>
+        <v>81023</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>100306</v>
+        <v>100155</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>123632</v>
+        <v>124705</v>
       </c>
     </row>
     <row r="31">
@@ -3135,40 +3135,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>82683</v>
+        <v>82929</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>94727</v>
+        <v>95025</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>102371</v>
+        <v>102466</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>123079</v>
+        <v>124189</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>25495</v>
+        <v>25377</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>30454</v>
+        <v>30435</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>44536</v>
+        <v>45752</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>41308</v>
+        <v>41313</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>101868</v>
+        <v>102136</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>120569</v>
+        <v>122405</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>138690</v>
+        <v>141816</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>158357</v>
+        <v>159759</v>
       </c>
     </row>
     <row r="32">
@@ -3271,40 +3271,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>1718666</v>
+        <v>1717318</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>1774135</v>
+        <v>1771575</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>1821687</v>
+        <v>1815089</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>1618351</v>
+        <v>1620061</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>773835</v>
+        <v>776109</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>843060</v>
+        <v>842200</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>1015186</v>
+        <v>1016326</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>857278</v>
+        <v>857440</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>2530457</v>
+        <v>2511439</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>2655018</v>
+        <v>2653261</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>2863798</v>
+        <v>2862290</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>2502898</v>
+        <v>2509831</v>
       </c>
     </row>
     <row r="35">
@@ -3315,40 +3315,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>1833147</v>
+        <v>1832464</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>1898444</v>
+        <v>1893930</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>1938203</v>
+        <v>1936022</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>1743631</v>
+        <v>1748100</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>874933</v>
+        <v>875981</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>947068</v>
+        <v>946304</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>1126891</v>
+        <v>1129597</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>955803</v>
+        <v>952784</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>2688011</v>
+        <v>2677054</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>2817787</v>
+        <v>2814858</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>3027170</v>
+        <v>3031437</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>2671654</v>
+        <v>2674325</v>
       </c>
     </row>
     <row r="36">
